--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>136144.524328771</v>
+        <v>133664.5354836385</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.640392003218994</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>106.5908076132626</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.945202867366995</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>35.33415019398285</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -899,10 +899,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>308.233111891118</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>281.9408634908496</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1066,13 +1066,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,16 +1111,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>148.1736287443614</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>32.93805507567788</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>121.5091210367496</v>
+        <v>163.0860508096759</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>49.78463707074214</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>61.17118126752713</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>58.24570521548698</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>4.019807611472247</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>109.0404882242222</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272922</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699798</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>57.24347904696276</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238297</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>75.7590545620421</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>42.2060645903077</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>149.6816769105183</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>113.3174219124918</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>69.8286381302724</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>69.82863813027228</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,13 +3430,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,16 +3667,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3718,13 +3718,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.5492438149765</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3740,13 +3740,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>35.23631477519695</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4138,16 +4138,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>38.61213096654735</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1493.520050907203</v>
+        <v>527.8767859460538</v>
       </c>
       <c r="C2" t="n">
-        <v>1124.557533966791</v>
+        <v>158.9142690056421</v>
       </c>
       <c r="D2" t="n">
-        <v>766.2918353600404</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E2" t="n">
-        <v>766.2918353600404</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
         <v>51.24678656800311</v>
@@ -4328,10 +4328,10 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190806</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847235</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1500.227517577121</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1500.227517577121</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1500.227517577121</v>
+        <v>527.8767859460538</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4401,7 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4410,13 +4410,13 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>304.7087196946018</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>599.4122767260736</v>
+        <v>846.306131908167</v>
       </c>
       <c r="M3" t="n">
-        <v>1233.591260505112</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N3" t="n">
         <v>1867.770244284151</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55.23183996938391</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C4" t="n">
-        <v>55.23183996938391</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>55.23183996938391</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
         <v>51.24678656800311</v>
@@ -4486,16 +4486,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,7 +4507,7 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
         <v>1533.86271359008</v>
@@ -4516,22 +4516,22 @@
         <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1048.115628253779</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>793.431140047892</v>
+        <v>789.4460866465112</v>
       </c>
       <c r="W4" t="n">
-        <v>504.0139700109314</v>
+        <v>500.0289166095505</v>
       </c>
       <c r="X4" t="n">
-        <v>276.024419112914</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y4" t="n">
-        <v>55.23183996938391</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1569.10175931188</v>
+        <v>1243.280836875046</v>
       </c>
       <c r="C5" t="n">
-        <v>1200.139242371468</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="D5" t="n">
-        <v>841.8735437647176</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883007</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>3072.075344883007</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W5" t="n">
-        <v>2719.306689612893</v>
+        <v>2393.48576717606</v>
       </c>
       <c r="X5" t="n">
-        <v>2345.840931351813</v>
+        <v>2020.02000891498</v>
       </c>
       <c r="Y5" t="n">
-        <v>1955.701599376001</v>
+        <v>1629.880676939168</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>528.5554336401428</v>
+        <v>647.3667606649364</v>
       </c>
       <c r="C7" t="n">
-        <v>359.619250712236</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="D7" t="n">
-        <v>359.619250712236</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E7" t="n">
-        <v>359.619250712236</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4750,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V7" t="n">
-        <v>1266.754733718651</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W7" t="n">
-        <v>977.3375636816903</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X7" t="n">
-        <v>749.348012783673</v>
+        <v>647.3667606649364</v>
       </c>
       <c r="Y7" t="n">
-        <v>528.5554336401428</v>
+        <v>647.3667606649364</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3092.578667240559</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="U8" t="n">
-        <v>3092.578667240559</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="V8" t="n">
-        <v>3092.578667240559</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="W8" t="n">
-        <v>2739.810011970445</v>
+        <v>2697.813113209913</v>
       </c>
       <c r="X8" t="n">
-        <v>2366.344253709365</v>
+        <v>2324.347354948834</v>
       </c>
       <c r="Y8" t="n">
-        <v>1976.204921733553</v>
+        <v>1934.208022973022</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>794.6070935315613</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C10" t="n">
-        <v>625.6709106036544</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1787.176578653352</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1498.073711778996</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1243.389223573109</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1243.389223573109</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1015.399672675091</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="Y10" t="n">
-        <v>794.6070935315613</v>
+        <v>529.0179941377679</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797189</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M12" t="n">
-        <v>691.195150674524</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703119</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C13" t="n">
-        <v>526.565882642405</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D13" t="n">
-        <v>376.4492432300692</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>376.4492432300692</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2442.902671851501</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852254</v>
@@ -5312,16 +5312,16 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N15" t="n">
-        <v>1520.445529061503</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O15" t="n">
-        <v>2072.35525930079</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P15" t="n">
-        <v>2495.978408795858</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.8431516380847</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>741.8431516380847</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>741.8431516380847</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797186</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611855</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611855</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683244</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400696</v>
       </c>
       <c r="C19" t="n">
-        <v>763.7541388327643</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="D19" t="n">
-        <v>613.6374994204285</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>465.7244058380354</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>318.834458340125</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>151.638359055005</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>151.638359055005</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138395</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703094</v>
       </c>
     </row>
     <row r="20">
@@ -5747,31 +5747,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5838,10 +5838,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5978,16 +5978,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,16 +6066,16 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397182</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M24" t="n">
-        <v>924.8344286397182</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>917.5010142286964</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>748.5648313007895</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D25" t="n">
-        <v>598.4481918884537</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E25" t="n">
-        <v>450.5350983060606</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>303.6451508081502</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>136.4490515230302</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>136.4490515230302</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782949</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038335</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199801</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993914</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956953</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058936</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1099.149479058936</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>740.5562989961525</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N27" t="n">
-        <v>1368.154262550759</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1465.362586952987</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1655.562009178173</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N30" t="n">
-        <v>2283.159972732779</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6655,16 +6655,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.923811518856</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.506641481895</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.517090583878</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>634.5603720565526</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683105</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2376.429105670894</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2156.827640693835</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1867.752414038033</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1613.067925832146</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1323.650755795185</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1095.661204897168</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2223.769289033212</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7166,19 +7166,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
         <v>2206.55866301478</v>
@@ -7187,16 +7187,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O39" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1708.43867092217</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7403,10 +7403,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111712</v>
@@ -7415,46 +7415,46 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2598873597757</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>448.1846595309963</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>943.510265746755</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1540.888753373307</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2530.951795518647</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>593.6115863900017</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>443.4949469776659</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>443.4949469776659</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>296.6049994797555</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>129.4089001946355</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>129.4089001946355</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7728,22 +7728,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>740.5562989961525</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8058,16 +8058,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>6.454437538929682</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>255.842170046095</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179983</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>376.0934496602616</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>99.15078398979011</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22702,25 +22702,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>142.4887597792022</v>
+        <v>129.3141767694989</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -22756,7 +22756,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>87.17534280744427</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.35543909864944</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>37.39347442234696</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-6.244474892532159e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>46.45968844823258</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>24.02235727160277</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,16 +24130,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>43.26526345294944</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>176.3785887617859</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>39.05977172825783</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>136.8413214260727</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,16 +24841,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>138.8202214113361</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>111.1976478713722</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,13 +25318,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,13 +25606,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.58839950885152</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>46.02952154336858</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26026,16 +26026,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>317255.8761406862</v>
+        <v>317255.8761406863</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="D2" t="n">
         <v>348942.7521923204</v>
       </c>
       <c r="E2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="F2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="G2" t="n">
         <v>343037.3048682528</v>
@@ -26332,28 +26332,28 @@
         <v>343037.3048682528</v>
       </c>
       <c r="I2" t="n">
-        <v>343037.3048682525</v>
+        <v>343037.304868253</v>
       </c>
       <c r="J2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="K2" t="n">
+        <v>343037.3048682527</v>
+      </c>
+      <c r="L2" t="n">
         <v>343037.3048682529</v>
-      </c>
-      <c r="K2" t="n">
-        <v>343037.3048682529</v>
-      </c>
-      <c r="L2" t="n">
-        <v>343037.3048682528</v>
       </c>
       <c r="M2" t="n">
         <v>343037.3048682528</v>
       </c>
       <c r="N2" t="n">
-        <v>343037.3048682525</v>
+        <v>343037.3048682527</v>
       </c>
       <c r="O2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682526</v>
       </c>
       <c r="P2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682529</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121057</v>
+        <v>203438.741612106</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605448</v>
+        <v>49110.09270605457</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551159</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95375.52669455676</v>
+        <v>95375.52669455681</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312017</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="D4" t="n">
         <v>89134.17909312018</v>
@@ -26436,10 +26436,10 @@
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768912</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768963</v>
       </c>
       <c r="K4" t="n">
         <v>9947.144321768897</v>
@@ -26448,13 +26448,13 @@
         <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768963</v>
+        <v>9947.144321768912</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768857</v>
+        <v>9947.144321768921</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768916</v>
+        <v>9947.144321768959</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-985809.2065696351</v>
+        <v>-985995.5999581739</v>
       </c>
       <c r="C6" t="n">
-        <v>-51564.10907429871</v>
+        <v>-51564.10907429899</v>
       </c>
       <c r="D6" t="n">
         <v>151874.6325378069</v>
       </c>
       <c r="E6" t="n">
-        <v>-93444.8310847789</v>
+        <v>-93479.56901021391</v>
       </c>
       <c r="F6" t="n">
-        <v>231967.6307225771</v>
+        <v>231932.8927971411</v>
       </c>
       <c r="G6" t="n">
-        <v>231967.6307225768</v>
+        <v>231932.892797141</v>
       </c>
       <c r="H6" t="n">
-        <v>231967.6307225766</v>
+        <v>231932.8927971409</v>
       </c>
       <c r="I6" t="n">
-        <v>231967.6307225767</v>
+        <v>231932.8927971415</v>
       </c>
       <c r="J6" t="n">
-        <v>64362.45291259435</v>
+        <v>64327.71498715853</v>
       </c>
       <c r="K6" t="n">
-        <v>182857.5380165224</v>
+        <v>182822.8000910864</v>
       </c>
       <c r="L6" t="n">
-        <v>231967.6307225768</v>
+        <v>231932.892797141</v>
       </c>
       <c r="M6" t="n">
-        <v>146912.602787065</v>
+        <v>146877.8648616294</v>
       </c>
       <c r="N6" t="n">
-        <v>231967.6307225766</v>
+        <v>231932.892797141</v>
       </c>
       <c r="O6" t="n">
-        <v>231967.6307225767</v>
+        <v>231932.8927971408</v>
       </c>
       <c r="P6" t="n">
-        <v>231967.6307225768</v>
+        <v>231932.8927971412</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26790,13 +26790,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>248.0922340074204</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>107.5074009904436</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>17.11978587707026</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>216.8034931298452</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27619,10 +27619,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>73.69725818114381</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>67.30010522656346</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>103.9640145794666</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>192.7716003133593</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>82.40884910287055</v>
+        <v>40.83191932994424</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,10 +28059,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>169.7643122054271</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>164.53847412151</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28536,7 +28536,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29217,7 +29217,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>-8.483880264975597e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-8.952838470577262e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30460,13 +30460,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -31039,34 +31039,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31075,13 +31075,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,34 +31118,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>430.400187030115</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>754.0002396832319</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>197.6412480909884</v>
+        <v>290.1088399635148</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>225.4828684302377</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>399.4395445221152</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32558,13 +32558,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>377.6350660745949</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214699</v>
@@ -32786,19 +32786,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>518.0009690113193</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>638.9422653403558</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33193,7 +33193,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
         <v>926.5868626460027</v>
@@ -33257,31 +33257,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>729.0844763571695</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>316.2462973459355</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>194.5189324111251</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>454.5879800486393</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33734,13 +33734,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33752,7 +33752,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33980,19 +33980,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P39" t="n">
-        <v>353.130074847795</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>145.7021085929663</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>168.0123247135882</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34387,7 +34387,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34448,25 +34448,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>536.8001439125376</v>
       </c>
       <c r="N45" t="n">
-        <v>704.1404939038099</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>193.0419337824146</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>553.5225306839452</v>
       </c>
       <c r="M3" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>622.6585275998987</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.65947400496688</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>82.88662398579324</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36206,13 +36206,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>235.5010321525766</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071396</v>
@@ -36373,7 +36373,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36434,19 +36434,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>386.659256927986</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295251</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>496.3460208959114</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36841,7 +36841,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>586.9504424351511</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>176.264523259914</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>55.9645526312509</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>311.9917356041949</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37382,13 +37382,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37400,7 +37400,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37628,19 +37628,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P39" t="n">
-        <v>219.1556674334648</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>18.86448192629965</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38096,25 +38096,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>394.6661099905193</v>
       </c>
       <c r="N45" t="n">
-        <v>572.7987818204766</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
